--- a/results/[14_delayed_co2_pricing]_#_fix_cost.xlsx
+++ b/results/[14_delayed_co2_pricing]_#_fix_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>48.94568441982146</v>
+        <v>1037.265132737054</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>124.8165752676129</v>
+        <v>28926.05393052954</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>65.57699827256084</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>280.025799378624</v>
+        <v>16171.06685703679</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>48492.22142001599</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>10595.37713982</v>
       </c>
       <c r="N2" t="n">
-        <v>44.45254313533853</v>
+        <v>7015.544443014018</v>
       </c>
       <c r="O2" t="n">
-        <v>65.62850269515555</v>
+        <v>6978.613354318873</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>36.69015424150047</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>130.6463787491815</v>
+        <v>4157.588990853394</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,19 +672,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>472.8347186561244</v>
+        <v>45991.90904307188</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>65.57699827256084</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>801.9410636593328</v>
+        <v>37079.12819938764</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54844.03303316472</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>17449.04999683176</v>
       </c>
       <c r="N2" t="n">
-        <v>120.0099975138686</v>
+        <v>8950.626290977361</v>
       </c>
       <c r="O2" t="n">
-        <v>129.5588641430018</v>
+        <v>9689.183138434251</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>84.48338536582979</v>
+        <v>2754.31755456332</v>
       </c>
       <c r="B2" t="n">
-        <v>257.1695622258425</v>
+        <v>6368.910634126893</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>996.2490642957112</v>
+        <v>57457.45307013817</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>65.57699827256084</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1575.918728261796</v>
+        <v>52465.73681402855</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54844.03303316472</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>21912.87293902603</v>
       </c>
       <c r="N2" t="n">
-        <v>266.8322411584571</v>
+        <v>12955.24527970918</v>
       </c>
       <c r="O2" t="n">
-        <v>239.9696547803062</v>
+        <v>12824.52739324476</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>84.48338536582979</v>
+        <v>2754.31755456332</v>
       </c>
       <c r="B2" t="n">
-        <v>257.1695622258425</v>
+        <v>6368.910634126893</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>996.2490642957112</v>
+        <v>57457.45307013817</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>65.57699827256084</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1575.918728261796</v>
+        <v>52465.73681402855</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54844.03303316472</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>21912.87293902603</v>
       </c>
       <c r="N2" t="n">
-        <v>266.8322411584571</v>
+        <v>13072.4393579009</v>
       </c>
       <c r="O2" t="n">
-        <v>247.5935650304752</v>
+        <v>12824.52739324476</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>105.4347953195339</v>
+        <v>5713.151062849596</v>
       </c>
       <c r="B2" t="n">
-        <v>257.1695622258425</v>
+        <v>6368.910634126893</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>996.2490642957112</v>
+        <v>57457.45307013817</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>65.57699827256084</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1575.918728261796</v>
+        <v>52465.73681402855</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54844.03303316472</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>21912.87293902603</v>
       </c>
       <c r="N2" t="n">
-        <v>266.8322411584571</v>
+        <v>13521.65671205384</v>
       </c>
       <c r="O2" t="n">
-        <v>254.1210524736068</v>
+        <v>14901.48629768362</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>105.4347953195339</v>
+        <v>5713.151062849596</v>
       </c>
       <c r="B2" t="n">
-        <v>257.1695622258425</v>
+        <v>6368.910634126893</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>996.2490642957112</v>
+        <v>57457.45307013817</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>65.57699827256084</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1575.918728261796</v>
+        <v>52465.73681402855</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54844.03303316472</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>21912.87293902603</v>
       </c>
       <c r="N2" t="n">
-        <v>266.8322411584571</v>
+        <v>13521.65671205384</v>
       </c>
       <c r="O2" t="n">
-        <v>254.1210524736068</v>
+        <v>14901.48629768362</v>
       </c>
     </row>
   </sheetData>

--- a/results/[14_delayed_co2_pricing]_#_fix_cost.xlsx
+++ b/results/[14_delayed_co2_pricing]_#_fix_cost.xlsx
@@ -517,10 +517,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3126.186294181648</v>
+        <v>4477.220219999998</v>
       </c>
       <c r="B2" t="n">
-        <v>5317.5120724</v>
+        <v>6645.58835753044</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>7823.948874322061</v>
+        <v>16189.88373611682</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6894.567065037667</v>
+        <v>4231.516049511277</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>26129.26808172</v>
+        <v>36871.39349763304</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -553,13 +553,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>4264.196670096</v>
+        <v>11723.69623729033</v>
       </c>
       <c r="N2" t="n">
-        <v>4734.510157549462</v>
+        <v>4440.772759108165</v>
       </c>
       <c r="O2" t="n">
-        <v>5357.27299770901</v>
+        <v>6938.835168893425</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11775.10584714495</v>
+        <v>4477.220219999998</v>
       </c>
       <c r="B2" t="n">
-        <v>5317.5120724</v>
+        <v>6645.58835753044</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,19 +672,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>23696.01449216592</v>
+        <v>33088.99240739239</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8059.88495323311</v>
+        <v>4231.516049511277</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>75991.11866206019</v>
+        <v>55489.39330640265</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -696,13 +696,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>22600.91745310483</v>
+        <v>17557.90112633227</v>
       </c>
       <c r="N2" t="n">
-        <v>15483.47631598038</v>
+        <v>8420.406902678273</v>
       </c>
       <c r="O2" t="n">
-        <v>12355.16171102918</v>
+        <v>10344.8778666987</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11775.10584714495</v>
+        <v>4477.220219999998</v>
       </c>
       <c r="B2" t="n">
-        <v>5317.5120724</v>
+        <v>6645.58835753044</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>94626.36698083149</v>
+        <v>52205.12940273627</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8059.88495323311</v>
+        <v>7864.0611328728</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>109181.8500649971</v>
+        <v>71876.10593152183</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>122797.0570547061</v>
+        <v>9458.152972418126</v>
       </c>
       <c r="M2" t="n">
-        <v>61433.06024792088</v>
+        <v>24106.24159122616</v>
       </c>
       <c r="N2" t="n">
-        <v>28161.48673318413</v>
+        <v>11661.64784445888</v>
       </c>
       <c r="O2" t="n">
-        <v>27035.88828627409</v>
+        <v>13010.88149144449</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11775.10584714495</v>
+        <v>4477.220219999998</v>
       </c>
       <c r="B2" t="n">
-        <v>5317.5120724</v>
+        <v>6645.58835753044</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>94626.36698083149</v>
+        <v>52205.12940273627</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8059.88495323311</v>
+        <v>7864.0611328728</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>109181.8500649971</v>
+        <v>71876.10593152183</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>122797.0570547061</v>
+        <v>9458.152972418126</v>
       </c>
       <c r="M2" t="n">
-        <v>61433.06024792088</v>
+        <v>24106.24159122616</v>
       </c>
       <c r="N2" t="n">
-        <v>28161.48673318413</v>
+        <v>11661.64784445888</v>
       </c>
       <c r="O2" t="n">
-        <v>27035.88828627409</v>
+        <v>13010.88149144449</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11775.10584714495</v>
+        <v>4477.220219999998</v>
       </c>
       <c r="B2" t="n">
-        <v>5317.5120724</v>
+        <v>6645.58835753044</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>94626.36698083149</v>
+        <v>52205.12940273627</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8059.88495323311</v>
+        <v>7864.0611328728</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>109181.8500649971</v>
+        <v>71876.10593152183</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>122797.0570547061</v>
+        <v>9458.152972418126</v>
       </c>
       <c r="M2" t="n">
-        <v>61433.06024792088</v>
+        <v>24106.24159122616</v>
       </c>
       <c r="N2" t="n">
-        <v>28161.48673318413</v>
+        <v>11661.64784445888</v>
       </c>
       <c r="O2" t="n">
-        <v>27035.88828627409</v>
+        <v>13010.88149144449</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11775.10584714495</v>
+        <v>4477.220219999998</v>
       </c>
       <c r="B2" t="n">
-        <v>5317.5120724</v>
+        <v>6645.58835753044</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>94626.36698083149</v>
+        <v>52205.12940273627</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8059.88495323311</v>
+        <v>7864.0611328728</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>109181.8500649971</v>
+        <v>71876.10593152183</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>122797.0570547061</v>
+        <v>9458.152972418126</v>
       </c>
       <c r="M2" t="n">
-        <v>61433.06024792088</v>
+        <v>24106.24159122616</v>
       </c>
       <c r="N2" t="n">
-        <v>28161.48673318413</v>
+        <v>11661.64784445888</v>
       </c>
       <c r="O2" t="n">
-        <v>27035.88828627409</v>
+        <v>13010.88149144449</v>
       </c>
     </row>
   </sheetData>

--- a/results/[14_delayed_co2_pricing]_#_fix_cost.xlsx
+++ b/results/[14_delayed_co2_pricing]_#_fix_cost.xlsx
@@ -517,10 +517,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4477.220219999998</v>
+        <v>4830.603421671776</v>
       </c>
       <c r="B2" t="n">
-        <v>6645.58835753044</v>
+        <v>6914.260623028063</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>16189.88373611682</v>
+        <v>15339.30996716316</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -541,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>36871.39349763304</v>
+        <v>36843.73937326</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -553,13 +553,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>11723.69623729033</v>
+        <v>11716.236729175</v>
       </c>
       <c r="N2" t="n">
-        <v>4440.772759108165</v>
+        <v>4270.376965689151</v>
       </c>
       <c r="O2" t="n">
-        <v>6938.835168893425</v>
+        <v>6924.712879078099</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4477.220219999998</v>
+        <v>4830.603421671776</v>
       </c>
       <c r="B2" t="n">
-        <v>6645.58835753044</v>
+        <v>8041.469130500362</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>33088.99240739239</v>
+        <v>41322.54231073364</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>55489.39330640265</v>
+        <v>67177.40575988838</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -696,13 +696,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>17557.90112633227</v>
+        <v>22588.905778934</v>
       </c>
       <c r="N2" t="n">
-        <v>8420.406902678273</v>
+        <v>10465.8025602956</v>
       </c>
       <c r="O2" t="n">
-        <v>10344.8778666987</v>
+        <v>12108.14566538872</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4477.220219999998</v>
+        <v>4830.603421671776</v>
       </c>
       <c r="B2" t="n">
-        <v>6645.58835753044</v>
+        <v>8041.469130500362</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>52205.12940273627</v>
+        <v>61689.09165384799</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7864.0611328728</v>
+        <v>7864.06113287106</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>71876.10593152183</v>
+        <v>85324.99695076495</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>9458.152972418126</v>
+        <v>4893.458355751803</v>
       </c>
       <c r="M2" t="n">
-        <v>24106.24159122616</v>
+        <v>28513.42754631791</v>
       </c>
       <c r="N2" t="n">
-        <v>11661.64784445888</v>
+        <v>13431.99981023839</v>
       </c>
       <c r="O2" t="n">
-        <v>13010.88149144449</v>
+        <v>15331.82941245748</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4477.220219999998</v>
+        <v>4830.603421671776</v>
       </c>
       <c r="B2" t="n">
-        <v>6645.58835753044</v>
+        <v>8041.469130500362</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>52205.12940273627</v>
+        <v>61689.09165384799</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7864.0611328728</v>
+        <v>7864.06113287106</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>71876.10593152183</v>
+        <v>85324.99695076495</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>9458.152972418126</v>
+        <v>4893.458355751803</v>
       </c>
       <c r="M2" t="n">
-        <v>24106.24159122616</v>
+        <v>28513.42754631791</v>
       </c>
       <c r="N2" t="n">
-        <v>11661.64784445888</v>
+        <v>13431.99981023839</v>
       </c>
       <c r="O2" t="n">
-        <v>13010.88149144449</v>
+        <v>15331.82941245748</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4477.220219999998</v>
+        <v>4830.603421671776</v>
       </c>
       <c r="B2" t="n">
-        <v>6645.58835753044</v>
+        <v>8041.469130500362</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>52205.12940273627</v>
+        <v>61689.09165384799</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7864.0611328728</v>
+        <v>7864.06113287106</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>71876.10593152183</v>
+        <v>85324.99695076495</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>9458.152972418126</v>
+        <v>4893.458355751803</v>
       </c>
       <c r="M2" t="n">
-        <v>24106.24159122616</v>
+        <v>28513.42754631791</v>
       </c>
       <c r="N2" t="n">
-        <v>11661.64784445888</v>
+        <v>13431.99981023839</v>
       </c>
       <c r="O2" t="n">
-        <v>13010.88149144449</v>
+        <v>15331.82941245748</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4477.220219999998</v>
+        <v>4830.603421671776</v>
       </c>
       <c r="B2" t="n">
-        <v>6645.58835753044</v>
+        <v>8041.469130500362</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>52205.12940273627</v>
+        <v>61689.09165384799</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7864.0611328728</v>
+        <v>7864.06113287106</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>71876.10593152183</v>
+        <v>85324.99695076495</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>9458.152972418126</v>
+        <v>4893.458355751803</v>
       </c>
       <c r="M2" t="n">
-        <v>24106.24159122616</v>
+        <v>28513.42754631791</v>
       </c>
       <c r="N2" t="n">
-        <v>11661.64784445888</v>
+        <v>13431.99981023839</v>
       </c>
       <c r="O2" t="n">
-        <v>13010.88149144449</v>
+        <v>15331.82941245748</v>
       </c>
     </row>
   </sheetData>

--- a/results/[14_delayed_co2_pricing]_#_fix_cost.xlsx
+++ b/results/[14_delayed_co2_pricing]_#_fix_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1037.265132737054</v>
+        <v>973.9537847600009</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>28926.05393052954</v>
+        <v>28982.37596598056</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -541,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>16171.06685703679</v>
+        <v>16175.28135478</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>48492.22142001599</v>
+        <v>48524.529503538</v>
       </c>
       <c r="M2" t="n">
-        <v>10595.37713982</v>
+        <v>10590.587968015</v>
       </c>
       <c r="N2" t="n">
-        <v>7015.544443014018</v>
+        <v>7098.474579830177</v>
       </c>
       <c r="O2" t="n">
-        <v>6978.613354318873</v>
+        <v>6965.142708907404</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4157.588990853394</v>
+        <v>5712.560177842886</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>45991.90904307188</v>
+        <v>56106.05588781912</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>37079.12819938764</v>
+        <v>44217.8984721661</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54844.03303316472</v>
+        <v>66966.57749858923</v>
       </c>
       <c r="M2" t="n">
-        <v>17449.04999683176</v>
+        <v>21984.28023276101</v>
       </c>
       <c r="N2" t="n">
-        <v>8950.626290977361</v>
+        <v>10503.58911838769</v>
       </c>
       <c r="O2" t="n">
-        <v>9689.183138434251</v>
+        <v>12022.61948454972</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2754.31755456332</v>
+        <v>2861.961401238371</v>
       </c>
       <c r="B2" t="n">
-        <v>6368.910634126893</v>
+        <v>8026.889663087295</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57457.45307013817</v>
+        <v>67297.73995507321</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52465.73681402855</v>
+        <v>59256.42575923612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54844.03303316472</v>
+        <v>66966.57749858923</v>
       </c>
       <c r="M2" t="n">
-        <v>21912.87293902603</v>
+        <v>25464.6214365565</v>
       </c>
       <c r="N2" t="n">
-        <v>12955.24527970918</v>
+        <v>15036.30649631677</v>
       </c>
       <c r="O2" t="n">
-        <v>12824.52739324476</v>
+        <v>14720.1191346754</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2754.31755456332</v>
+        <v>2861.961401238371</v>
       </c>
       <c r="B2" t="n">
-        <v>6368.910634126893</v>
+        <v>8026.889663087295</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57457.45307013817</v>
+        <v>67297.73995507321</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52465.73681402855</v>
+        <v>59256.42575923612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54844.03303316472</v>
+        <v>66966.57749858923</v>
       </c>
       <c r="M2" t="n">
-        <v>21912.87293902603</v>
+        <v>25464.6214365565</v>
       </c>
       <c r="N2" t="n">
-        <v>13072.4393579009</v>
+        <v>15140.39076497772</v>
       </c>
       <c r="O2" t="n">
-        <v>12824.52739324476</v>
+        <v>14720.1191346754</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5713.151062849596</v>
+        <v>6302.873118834019</v>
       </c>
       <c r="B2" t="n">
-        <v>6368.910634126893</v>
+        <v>8026.889663087295</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57457.45307013817</v>
+        <v>67297.73995507321</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52465.73681402855</v>
+        <v>59256.42575923612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54844.03303316472</v>
+        <v>66966.57749858923</v>
       </c>
       <c r="M2" t="n">
-        <v>21912.87293902603</v>
+        <v>25464.6214365565</v>
       </c>
       <c r="N2" t="n">
-        <v>13521.65671205384</v>
+        <v>15675.90194955163</v>
       </c>
       <c r="O2" t="n">
-        <v>14901.48629768362</v>
+        <v>17055.58512102407</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5713.151062849596</v>
+        <v>6302.873118834019</v>
       </c>
       <c r="B2" t="n">
-        <v>6368.910634126893</v>
+        <v>8026.889663087295</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57457.45307013817</v>
+        <v>67297.73995507321</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52465.73681402855</v>
+        <v>59256.42575923612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54844.03303316472</v>
+        <v>66966.57749858923</v>
       </c>
       <c r="M2" t="n">
-        <v>21912.87293902603</v>
+        <v>25464.6214365565</v>
       </c>
       <c r="N2" t="n">
-        <v>13521.65671205384</v>
+        <v>15675.90194955163</v>
       </c>
       <c r="O2" t="n">
-        <v>14901.48629768362</v>
+        <v>17055.58512102407</v>
       </c>
     </row>
   </sheetData>

--- a/results/[14_delayed_co2_pricing]_#_fix_cost.xlsx
+++ b/results/[14_delayed_co2_pricing]_#_fix_cost.xlsx
@@ -446,67 +446,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -517,31 +517,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3126.186294181648</v>
+        <v>3903.181680257922</v>
       </c>
       <c r="B2" t="n">
-        <v>5317.5120724</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>48024.68820317771</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>7823.948874322061</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>9578.721511094005</v>
       </c>
       <c r="G2" t="n">
-        <v>6894.567065037667</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2534.277928792126</v>
       </c>
       <c r="I2" t="n">
-        <v>26129.26808172</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -553,13 +553,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>4264.196670096</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4734.510157549462</v>
+        <v>2483.088451418225</v>
       </c>
       <c r="O2" t="n">
-        <v>5357.27299770901</v>
+        <v>1995.76246267978</v>
       </c>
     </row>
   </sheetData>
@@ -589,67 +589,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -660,31 +660,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11775.10584714495</v>
+        <v>7750.60443450132</v>
       </c>
       <c r="B2" t="n">
-        <v>5317.5120724</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>192998.6748030985</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>23696.01449216592</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>16456.88206482895</v>
       </c>
       <c r="G2" t="n">
-        <v>8059.88495323311</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>7410.946080941625</v>
       </c>
       <c r="I2" t="n">
-        <v>75991.11866206019</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -696,13 +696,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>22600.91745310483</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>15483.47631598038</v>
+        <v>8657.602454901127</v>
       </c>
       <c r="O2" t="n">
-        <v>12355.16171102918</v>
+        <v>5738.328092052151</v>
       </c>
     </row>
   </sheetData>
@@ -732,67 +732,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -803,31 +803,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11775.10584714495</v>
+        <v>27024.51331005455</v>
       </c>
       <c r="B2" t="n">
-        <v>5317.5120724</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>292299.7571186319</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>94626.36698083149</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>17293.09788022109</v>
       </c>
       <c r="G2" t="n">
-        <v>8059.88495323311</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>11593.76417664661</v>
       </c>
       <c r="I2" t="n">
-        <v>109181.8500649971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>122797.0570547061</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>61433.06024792088</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>28161.48673318413</v>
+        <v>13965.19781313027</v>
       </c>
       <c r="O2" t="n">
-        <v>27035.88828627409</v>
+        <v>9655.305390073254</v>
       </c>
     </row>
   </sheetData>
@@ -875,67 +875,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -946,31 +946,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11775.10584714495</v>
+        <v>27024.51331005455</v>
       </c>
       <c r="B2" t="n">
-        <v>5317.5120724</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>292299.7571186319</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>94626.36698083149</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>17293.09788022109</v>
       </c>
       <c r="G2" t="n">
-        <v>8059.88495323311</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>11593.76417664661</v>
       </c>
       <c r="I2" t="n">
-        <v>109181.8500649971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>122797.0570547061</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>61433.06024792088</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>28161.48673318413</v>
+        <v>13965.19781313027</v>
       </c>
       <c r="O2" t="n">
-        <v>27035.88828627409</v>
+        <v>9655.305390073254</v>
       </c>
     </row>
   </sheetData>
@@ -1018,67 +1018,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1089,31 +1089,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11775.10584714495</v>
+        <v>27024.51331005455</v>
       </c>
       <c r="B2" t="n">
-        <v>5317.5120724</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>292299.7571186319</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>94626.36698083149</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>17293.09788022109</v>
       </c>
       <c r="G2" t="n">
-        <v>8059.88495323311</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>11593.76417664661</v>
       </c>
       <c r="I2" t="n">
-        <v>109181.8500649971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>122797.0570547061</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>61433.06024792088</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>28161.48673318413</v>
+        <v>13965.19781313027</v>
       </c>
       <c r="O2" t="n">
-        <v>27035.88828627409</v>
+        <v>9655.305390073254</v>
       </c>
     </row>
   </sheetData>
@@ -1161,67 +1161,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1232,31 +1232,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11775.10584714495</v>
+        <v>27024.51331005455</v>
       </c>
       <c r="B2" t="n">
-        <v>5317.5120724</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>292299.7571186319</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>94626.36698083149</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>17293.09788022109</v>
       </c>
       <c r="G2" t="n">
-        <v>8059.88495323311</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>11593.76417664661</v>
       </c>
       <c r="I2" t="n">
-        <v>109181.8500649971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>122797.0570547061</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>61433.06024792088</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>28161.48673318413</v>
+        <v>13965.19781313027</v>
       </c>
       <c r="O2" t="n">
-        <v>27035.88828627409</v>
+        <v>9655.305390073254</v>
       </c>
     </row>
   </sheetData>

--- a/results/[14_delayed_co2_pricing]_#_fix_cost.xlsx
+++ b/results/[14_delayed_co2_pricing]_#_fix_cost.xlsx
@@ -517,10 +517,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4830.603421671776</v>
+        <v>5390.387531524985</v>
       </c>
       <c r="B2" t="n">
-        <v>6914.260623028063</v>
+        <v>6663.107410080002</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>15339.30996716316</v>
+        <v>14816.31105402212</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -541,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>36843.73937326</v>
+        <v>36846.71726986</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -553,13 +553,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>11716.236729175</v>
+        <v>11706.203357365</v>
       </c>
       <c r="N2" t="n">
-        <v>4270.376965689151</v>
+        <v>3919.172050548081</v>
       </c>
       <c r="O2" t="n">
-        <v>6924.712879078099</v>
+        <v>6924.712879078098</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4830.603421671776</v>
+        <v>5390.387531524985</v>
       </c>
       <c r="B2" t="n">
-        <v>8041.469130500362</v>
+        <v>8293.296836026202</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>41322.54231073364</v>
+        <v>40066.17459638815</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>67177.40575988838</v>
+        <v>67226.01974586057</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -696,13 +696,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>22588.905778934</v>
+        <v>22423.598584156</v>
       </c>
       <c r="N2" t="n">
-        <v>10465.8025602956</v>
+        <v>10156.34074110075</v>
       </c>
       <c r="O2" t="n">
-        <v>12108.14566538872</v>
+        <v>12108.04910209266</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4830.603421671776</v>
+        <v>5390.387531524985</v>
       </c>
       <c r="B2" t="n">
-        <v>8041.469130500362</v>
+        <v>8293.296836026202</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>61689.09165384799</v>
+        <v>60397.03343082713</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7864.06113287106</v>
+        <v>7864.0611328728</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85324.99695076495</v>
+        <v>87485.02868918961</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>4893.458355751803</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>28513.42754631791</v>
+        <v>28551.55208405499</v>
       </c>
       <c r="N2" t="n">
-        <v>13431.99981023839</v>
+        <v>12959.04701199569</v>
       </c>
       <c r="O2" t="n">
-        <v>15331.82941245748</v>
+        <v>15398.65911648144</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4830.603421671776</v>
+        <v>5390.387531524985</v>
       </c>
       <c r="B2" t="n">
-        <v>8041.469130500362</v>
+        <v>8293.296836026202</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>61689.09165384799</v>
+        <v>60397.03343082713</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7864.06113287106</v>
+        <v>7864.0611328728</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85324.99695076495</v>
+        <v>87485.02868918961</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>4893.458355751803</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>28513.42754631791</v>
+        <v>28551.55208405499</v>
       </c>
       <c r="N2" t="n">
-        <v>13431.99981023839</v>
+        <v>12959.04701199569</v>
       </c>
       <c r="O2" t="n">
-        <v>15331.82941245748</v>
+        <v>15398.65911648144</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4830.603421671776</v>
+        <v>5390.387531524985</v>
       </c>
       <c r="B2" t="n">
-        <v>8041.469130500362</v>
+        <v>8293.296836026202</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>61689.09165384799</v>
+        <v>60397.03343082713</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7864.06113287106</v>
+        <v>7864.0611328728</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85324.99695076495</v>
+        <v>87485.02868918961</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>4893.458355751803</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>28513.42754631791</v>
+        <v>28551.55208405499</v>
       </c>
       <c r="N2" t="n">
-        <v>13431.99981023839</v>
+        <v>12959.04701199569</v>
       </c>
       <c r="O2" t="n">
-        <v>15331.82941245748</v>
+        <v>15398.65911648144</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4830.603421671776</v>
+        <v>5390.387531524985</v>
       </c>
       <c r="B2" t="n">
-        <v>8041.469130500362</v>
+        <v>8293.296836026202</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>61689.09165384799</v>
+        <v>60397.03343082713</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7864.06113287106</v>
+        <v>7864.0611328728</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85324.99695076495</v>
+        <v>87485.02868918961</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>4893.458355751803</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>28513.42754631791</v>
+        <v>28551.55208405499</v>
       </c>
       <c r="N2" t="n">
-        <v>13431.99981023839</v>
+        <v>12959.04701199569</v>
       </c>
       <c r="O2" t="n">
-        <v>15331.82941245748</v>
+        <v>15398.65911648144</v>
       </c>
     </row>
   </sheetData>

--- a/results/[14_delayed_co2_pricing]_#_fix_cost.xlsx
+++ b/results/[14_delayed_co2_pricing]_#_fix_cost.xlsx
@@ -556,10 +556,10 @@
         <v>10590.587968015</v>
       </c>
       <c r="N2" t="n">
-        <v>7098.474579830177</v>
+        <v>7098.474579830174</v>
       </c>
       <c r="O2" t="n">
-        <v>6965.142708907404</v>
+        <v>6965.1427089074</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5712.560177842886</v>
+        <v>5707.815717280662</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>44217.8984721661</v>
+        <v>44492.05901988943</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>66966.57749858923</v>
+        <v>66334.06707325629</v>
       </c>
       <c r="M2" t="n">
-        <v>21984.28023276101</v>
+        <v>21991.42050229464</v>
       </c>
       <c r="N2" t="n">
-        <v>10503.58911838769</v>
+        <v>10503.58911838768</v>
       </c>
       <c r="O2" t="n">
-        <v>12022.61948454972</v>
+        <v>12039.81600698566</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2861.961401238371</v>
+        <v>2927.360317916481</v>
       </c>
       <c r="B2" t="n">
-        <v>8026.889663087295</v>
+        <v>7940.887964949257</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>67297.73995507321</v>
+        <v>67179.99183625776</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>59256.42575923612</v>
+        <v>59530.75343380851</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>66966.57749858923</v>
+        <v>66334.06707325629</v>
       </c>
       <c r="M2" t="n">
-        <v>25464.6214365565</v>
+        <v>25547.11936466757</v>
       </c>
       <c r="N2" t="n">
-        <v>15036.30649631677</v>
+        <v>15023.56613839683</v>
       </c>
       <c r="O2" t="n">
-        <v>14720.1191346754</v>
+        <v>14720.97711770872</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2861.961401238371</v>
+        <v>2927.360317916481</v>
       </c>
       <c r="B2" t="n">
-        <v>8026.889663087295</v>
+        <v>7940.887964949257</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>67297.73995507321</v>
+        <v>67179.99183625776</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>59256.42575923612</v>
+        <v>59530.75343380851</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>66966.57749858923</v>
+        <v>66334.06707325629</v>
       </c>
       <c r="M2" t="n">
-        <v>25464.6214365565</v>
+        <v>25547.11936466757</v>
       </c>
       <c r="N2" t="n">
-        <v>15140.39076497772</v>
+        <v>15130.35718193136</v>
       </c>
       <c r="O2" t="n">
-        <v>14720.1191346754</v>
+        <v>14720.97711770872</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6302.873118834019</v>
+        <v>6352.985609279765</v>
       </c>
       <c r="B2" t="n">
-        <v>8026.889663087295</v>
+        <v>7940.887964949257</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>67297.73995507321</v>
+        <v>67179.99183625776</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>59256.42575923612</v>
+        <v>59530.75343380851</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>66966.57749858923</v>
+        <v>66334.06707325629</v>
       </c>
       <c r="M2" t="n">
-        <v>25464.6214365565</v>
+        <v>25547.11936466757</v>
       </c>
       <c r="N2" t="n">
-        <v>15675.90194955163</v>
+        <v>15673.28955718277</v>
       </c>
       <c r="O2" t="n">
-        <v>17055.58512102407</v>
+        <v>17052.53181919008</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6302.873118834019</v>
+        <v>6352.985609279765</v>
       </c>
       <c r="B2" t="n">
-        <v>8026.889663087295</v>
+        <v>7940.887964949257</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>67297.73995507321</v>
+        <v>67179.99183625776</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>59256.42575923612</v>
+        <v>59530.75343380851</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>66966.57749858923</v>
+        <v>66334.06707325629</v>
       </c>
       <c r="M2" t="n">
-        <v>25464.6214365565</v>
+        <v>25547.11936466757</v>
       </c>
       <c r="N2" t="n">
-        <v>15675.90194955163</v>
+        <v>15673.28955718277</v>
       </c>
       <c r="O2" t="n">
-        <v>17055.58512102407</v>
+        <v>17052.53181919008</v>
       </c>
     </row>
   </sheetData>
